--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.035681557053910545</t>
+          <t>0.04044045119927976</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.10221459911267465</t>
+          <t>0.0466537005782963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8641890493014036</t>
+          <t>0.9674969160414004</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.037519753217165774</t>
+          <t>0.038907309966553984</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.09369266250446343</t>
+          <t>0.061479269468029785</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8857316541299667</t>
+          <t>0.9437044305718536</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.03833401718635365</t>
+          <t>0.037731676690805925</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.11241569244606539</t>
+          <t>0.03565070224314957</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.835531780017581</t>
+          <t>0.9806906867416537</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0409790329661844</t>
+          <t>0.03578049200949196</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.087767016603211</t>
+          <t>0.04975266715524254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8999862478811792</t>
+          <t>0.9630817959746416</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04044045119927976</t>
+          <t>0.0406930854540438</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0466537005782963</t>
+          <t>0.04606635141116451</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9674969160414004</t>
+          <t>0.968241026420384</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.038907309966553984</t>
+          <t>0.03894721592324752</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.061479269468029785</t>
+          <t>0.061839590413352435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9437044305718536</t>
+          <t>0.9430655129109176</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.037731676690805925</t>
+          <t>0.03642865560081549</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.03565070224314957</t>
+          <t>0.04952121500701482</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9806906867416537</t>
+          <t>0.9634378783796155</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.03578049200949196</t>
+          <t>0.03751202735987903</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.04975266715524254</t>
+          <t>0.035413881599497016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9630817959746416</t>
+          <t>0.9809053644791109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0406930854540438</t>
+          <t>0.03833954809227332</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.04606635141116451</t>
+          <t>0.035067938015448934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.968241026420384</t>
+          <t>0.9702842970394353</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.03894721592324752</t>
+          <t>0.03882543179137902</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.061839590413352435</t>
+          <t>0.055093964701873624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9430655129109176</t>
+          <t>0.9271221023562191</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.03642865560081549</t>
+          <t>0.04103306368895696</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.04952121500701482</t>
+          <t>0.033543411036812874</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9634378783796155</t>
+          <t>0.9728367589389496</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.03751202735987903</t>
+          <t>0.039667121553368934</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.035413881599497016</t>
+          <t>0.043203574944894026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9809053644791109</t>
+          <t>0.9551660755407112</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04044045119927976</t>
+          <t>0.04441006738859966</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0466537005782963</t>
+          <t>0.07046707993802993</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9674969160414004</t>
+          <t>0.896061926642401</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.038907309966553984</t>
+          <t>0.047915392298907976</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.061479269468029785</t>
+          <t>0.16028352916166705</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9437044305718536</t>
+          <t>0.48492546117225205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.037731676690805925</t>
+          <t>0.0469442695326906</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.03565070224314957</t>
+          <t>0.1128194831860316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9806906867416537</t>
+          <t>0.7420365884897979</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.03578049200949196</t>
+          <t>0.04944433217244736</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.04975266715524254</t>
+          <t>0.06433908834778888</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9630817959746416</t>
+          <t>0.9116456755664323</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/avg_classes.xlsx
@@ -465,22 +465,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04441006738859966</t>
+          <t>0.0469442695326906</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.07046707993802993</t>
+          <t>0.1128194831860316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.896061926642401</t>
+          <t>0.7420365884897979</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -509,22 +509,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0469442695326906</t>
+          <t>0.04441006738859966</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.1128194831860316</t>
+          <t>0.07046707993802993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7420365884897979</t>
+          <t>0.896061926642401</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
     </row>
